--- a/myapp/files/9_MethodComparePercent/Scenario 335.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 335.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5624</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.978606043205526</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.380228136882129</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8630</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.50166610114931</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.52091254752852</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9797</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.70473033522129</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.90114068441065</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1433</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.24934965503441</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.52091254752852</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.147208519301543</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.380228136882129</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7227</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.25753660637382</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>340</v>
+        <v>19732</v>
       </c>
       <c r="F8" t="n">
-        <v>0.490139545611809</v>
+        <v>3.43347340763361</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>3.04182509505703</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1860</v>
+        <v>39014</v>
       </c>
       <c r="F9" t="n">
-        <v>2.68135163187637</v>
+        <v>6.78864441138343</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,16 +859,16 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>6.08365019011407</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>7.2463768115942</v>
+        <v>8.69565217391304</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2092</v>
+        <v>19021</v>
       </c>
       <c r="F10" t="n">
-        <v>3.01579979241149</v>
+        <v>3.30975560949721</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>4.56273764258555</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1248</v>
+        <v>4914</v>
       </c>
       <c r="F11" t="n">
-        <v>1.79910044977511</v>
+        <v>0.855062250411088</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10336</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.79851921453989</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6673</v>
+        <v>17897</v>
       </c>
       <c r="F13" t="n">
-        <v>9.61970937608119</v>
+        <v>3.11417360512968</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>2.6615969581749</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>11733</v>
+        <v>49368</v>
       </c>
       <c r="F14" t="n">
-        <v>16.914139084304</v>
+        <v>8.59029572207867</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -1049,16 +1049,16 @@
         <v>7.2463768115942</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>7.5</v>
+        <v>7.60456273764258</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>14.4927536231884</v>
+        <v>13.0434782608696</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7731</v>
+        <v>38172</v>
       </c>
       <c r="F15" t="n">
-        <v>11.1449083150732</v>
+        <v>6.64213191344974</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
         <v>5.79710144927536</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>12.5</v>
+        <v>7.60456273764258</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6542</v>
+        <v>14102</v>
       </c>
       <c r="F16" t="n">
-        <v>9.43086149233076</v>
+        <v>2.4538233323763</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>3.42205323193916</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4656</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.810168872184376</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.14068441064639</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10752</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.87090543679691</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.28136882129278</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>297</v>
+        <v>31670</v>
       </c>
       <c r="F19" t="n">
-        <v>0.428151308960904</v>
+        <v>5.51074917999983</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
@@ -1239,10 +1239,10 @@
         <v>14.4927536231884</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>6.08365019011407</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>2019</v>
+        <v>58500</v>
       </c>
       <c r="F20" t="n">
-        <v>2.91056394879483</v>
+        <v>10.1793125048939</v>
       </c>
       <c r="G20" t="n">
         <v>26</v>
@@ -1277,10 +1277,10 @@
         <v>37.6811594202899</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>11.0266159695817</v>
       </c>
       <c r="K20" t="n">
         <v>6</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2442</v>
+        <v>37067</v>
       </c>
       <c r="F21" t="n">
-        <v>3.52035520701188</v>
+        <v>6.44985601057952</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>8.74524714828897</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>9391</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.63408416638391</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.14068441064639</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>624</v>
+        <v>19975</v>
       </c>
       <c r="F23" t="n">
-        <v>0.899550224887556</v>
+        <v>3.47575670573087</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.28136882129278</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>5626</v>
+        <v>39771</v>
       </c>
       <c r="F24" t="n">
-        <v>8.11036789297659</v>
+        <v>6.92036645525018</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -1429,10 +1429,10 @@
         <v>8.69565217391304</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>4.94296577946768</v>
       </c>
       <c r="K24" t="n">
         <v>6</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>9952</v>
+        <v>59209</v>
       </c>
       <c r="F25" t="n">
-        <v>14.3466728174374</v>
+        <v>10.3026822923464</v>
       </c>
       <c r="G25" t="n">
         <v>7</v>
@@ -1467,16 +1467,16 @@
         <v>10.1449275362319</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5</v>
+        <v>10.2661596958175</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
-        <v>11.5942028985507</v>
+        <v>13.0434782608696</v>
       </c>
     </row>
     <row r="26">
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>10189</v>
+        <v>57591</v>
       </c>
       <c r="F26" t="n">
-        <v>14.6883289124668</v>
+        <v>10.0211416490486</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1505,16 +1505,16 @@
         <v>5.79710144927536</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J26" t="n">
-        <v>17.5</v>
+        <v>9.1254752851711</v>
       </c>
       <c r="K26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>20.2898550724638</v>
+        <v>18.8405797101449</v>
       </c>
     </row>
   </sheetData>
